--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,10 +105,40 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>49614-1</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>4992-4</t>
+  </si>
+  <si>
+    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>71429-5</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
+    <t>97513-6</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t/>
@@ -386,7 +416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,15 +447,55 @@
         <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -111,6 +111,54 @@
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>26621-3</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>38394-3</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>47085-6</t>
+  </si>
+  <si>
+    <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
@@ -123,10 +171,52 @@
     <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
   </si>
   <si>
+    <t>50687-3</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Presence] in Blood</t>
+  </si>
+  <si>
+    <t>51587-4</t>
+  </si>
+  <si>
+    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
+  </si>
+  <si>
+    <t>589-2</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>590-0</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>593-4</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>70569-9</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>82300-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
     <t>85827-4</t>
@@ -416,7 +506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,15 +577,135 @@
         <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,6 +105,12 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>46732-4</t>
+  </si>
+  <si>
+    <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>100911-7</t>
   </si>
   <si>
@@ -123,10 +129,22 @@
     <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
-    <t>26621-3</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Specimen</t>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
   </si>
   <si>
     <t>32781-7</t>
@@ -135,10 +153,16 @@
     <t>Legionella sp Ag [Presence] in Urine</t>
   </si>
   <si>
-    <t>38394-3</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Urine by Organism specific culture</t>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
   </si>
   <si>
     <t>46454-5</t>
@@ -159,6 +183,12 @@
     <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
+    <t>49609-1</t>
+  </si>
+  <si>
+    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
@@ -183,6 +213,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>589-2</t>
   </si>
   <si>
@@ -201,6 +237,42 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>60422-3</t>
+  </si>
+  <si>
+    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6578-9</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Blood by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6579-7</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6581-3</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6584-7</t>
+  </si>
+  <si>
+    <t>Virus identified in Specimen by Culture</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>70569-9</t>
   </si>
   <si>
@@ -223,6 +295,30 @@
   </si>
   <si>
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
+    <t>88585-5</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88588-9</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Identifier] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>90066-2</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>92786-3</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
   </si>
   <si>
     <t>97513-6</t>
@@ -506,7 +602,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,15 +793,143 @@
         <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,78 +105,78 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>46732-4</t>
   </si>
   <si>
     <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>100911-7</t>
-  </si>
-  <si>
-    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
-  </si>
-  <si>
-    <t>101219-4</t>
-  </si>
-  <si>
-    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>14357-8</t>
-  </si>
-  <si>
-    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
-  </si>
-  <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
-    <t>32781-7</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>38353-9</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>43389-6</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46454-5</t>
-  </si>
-  <si>
-    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>47085-6</t>
   </si>
   <si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t>70569-9</t>
@@ -602,7 +608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,15 +927,23 @@
         <v>104</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,6 +135,12 @@
     <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
   </si>
   <si>
+    <t>17563-8</t>
+  </si>
+  <si>
+    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -153,6 +159,12 @@
     <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>41625-5</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>43389-6</t>
   </si>
   <si>
@@ -183,10 +195,10 @@
     <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
-    <t>49609-1</t>
-  </si>
-  <si>
-    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+    <t>49612-5</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>49614-1</t>
@@ -213,6 +225,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>552-0</t>
+  </si>
+  <si>
+    <t>Brucella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>58473-0</t>
   </si>
   <si>
@@ -243,6 +261,12 @@
     <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>65756-9</t>
+  </si>
+  <si>
+    <t>Salmonella sp serovar [Type] in Isolate</t>
+  </si>
+  <si>
     <t>6578-9</t>
   </si>
   <si>
@@ -291,12 +315,30 @@
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>74037-3</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Identifier] in Brain by Light microscopy</t>
+  </si>
+  <si>
+    <t>75756-7</t>
+  </si>
+  <si>
+    <t>Bacteria identified in Isolate by MS.MALDI-TOF</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
     <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
+    <t>82301-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
@@ -325,6 +367,18 @@
   </si>
   <si>
     <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93385-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>97313-1</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
     <t>97513-6</t>
@@ -608,7 +662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -935,15 +989,87 @@
         <v>106</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,6 +141,12 @@
     <t>Salmonella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>22826-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A identified in Specimen by Bioassay</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -159,6 +165,12 @@
     <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>39025-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>41625-5</t>
   </si>
   <si>
@@ -219,6 +231,12 @@
     <t>Plasmodium sp Ag [Presence] in Blood</t>
   </si>
   <si>
+    <t>50697-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Identifier] in Isolate</t>
+  </si>
+  <si>
     <t>51587-4</t>
   </si>
   <si>
@@ -255,6 +273,12 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>59423-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin type RNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60422-3</t>
   </si>
   <si>
@@ -297,6 +321,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6604-3</t>
+  </si>
+  <si>
+    <t>Influenza virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6609-2</t>
   </si>
   <si>
@@ -327,6 +357,12 @@
     <t>Bacteria identified in Isolate by MS.MALDI-TOF</t>
   </si>
   <si>
+    <t>7899-8</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
@@ -343,6 +379,12 @@
   </si>
   <si>
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
+    <t>86520-4</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
     <t>88585-5</t>
@@ -662,7 +704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,15 +1103,71 @@
         <v>124</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -213,18 +213,6 @@
     <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49614-1</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>4992-4</t>
-  </si>
-  <si>
-    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>50687-3</t>
   </si>
   <si>
@@ -339,12 +327,6 @@
     <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
   </si>
   <si>
-    <t>71429-5</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>74037-3</t>
   </si>
   <si>
@@ -373,12 +355,6 @@
   </si>
   <si>
     <t>Salmonella sp [Presence] in Stool by Culture</t>
-  </si>
-  <si>
-    <t>85827-4</t>
-  </si>
-  <si>
-    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
     <t>86520-4</t>
@@ -704,7 +680,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1127,47 +1103,15 @@
         <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,18 +111,18 @@
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
+    <t>101003-2</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade [Type] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
     <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>104376-9</t>
   </si>
   <si>
@@ -189,12 +189,6 @@
     <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>46732-4</t>
   </si>
   <si>
@@ -231,6 +225,36 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>534-8</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
+    <t>539-7</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>540-5</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Tissue by Organism specific culture</t>
+  </si>
+  <si>
+    <t>541-3</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>543-9</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>552-0</t>
   </si>
   <si>
@@ -403,6 +427,12 @@
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>9823-6</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Bronchial specimen by Organism specific culture</t>
   </si>
   <si>
     <t/>
@@ -680,7 +710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1103,15 +1133,55 @@
         <v>130</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-organism-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
